--- a/GP Book.xlsx
+++ b/GP Book.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22152" windowHeight="10248"/>
+    <workbookView windowWidth="22152" windowHeight="10248" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ch 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Probability and Statistics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>Introduction</t>
   </si>
@@ -37,9 +38,54 @@
     <t>Inductive Training</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Move from finite training Data D to a </t>
-    </r>
+    <t>Move from finite training Data D to a function f that makes predictions for all possible input values.</t>
+  </si>
+  <si>
+    <t>Make assumptions about the function</t>
+  </si>
+  <si>
+    <t>Otherwise  any function which is consistent with the training data would be equally valid.</t>
+  </si>
+  <si>
+    <t>Two approaches</t>
+  </si>
+  <si>
+    <t>Restriction Bias</t>
+  </si>
+  <si>
+    <t>1. Restrict the class of functions that we consider (for e.g., only considering linear functions)</t>
+  </si>
+  <si>
+    <t>Problem:</t>
+  </si>
+  <si>
+    <t>We have to decide upon the richness of the class of functions considered.</t>
+  </si>
+  <si>
+    <t>1. If we are using a model based on a certain class of functions (i.e. linear functions) and the target function</t>
+  </si>
+  <si>
+    <t>is not well modelled by this class, then the predictions will be poor.</t>
+  </si>
+  <si>
+    <t>2. One may be tempted to increase the flexibility of the class of functions, but this runs into the dangers of</t>
+  </si>
+  <si>
+    <t>overfitting, where we can obtain a good fit to the training data, but perform badly when making test predictions.</t>
+  </si>
+  <si>
+    <t>Preference Bias</t>
+  </si>
+  <si>
+    <t>2. Give a prior probability to every possible function. Higher probabilities given to functions that we consider to be more likely.</t>
+  </si>
+  <si>
+    <t>Because they are smoother than other functions.</t>
+  </si>
+  <si>
+    <t>There are uncountably infinite set of possible functions and it's not possible to compute them in finite time.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -49,7 +95,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>function f</t>
+      <t>Gaussian processes</t>
     </r>
     <r>
       <rPr>
@@ -59,58 +105,188 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> that makes predictions for all possible input values.</t>
+      <t xml:space="preserve"> comes to our rescue.</t>
     </r>
   </si>
   <si>
-    <t>Make 2 assumptions about the function</t>
-  </si>
-  <si>
-    <t>Otherwise  any function which is consistent with the training data would be equally valid.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Assumptions for 
-characteristics </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>function f</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Restrict the class of functions that we consider (for e.g., only considering linear functions)</t>
-  </si>
-  <si>
-    <t>Problem:</t>
-  </si>
-  <si>
-    <t>We have to decide upon the richness of the class of functions considered.</t>
-  </si>
-  <si>
-    <t>1. If we are using a model based on a certain class of functions (i.e. linear functions) and the target function</t>
-  </si>
-  <si>
-    <t>is not well modelled by this class, then the predictions will be poor.</t>
-  </si>
-  <si>
-    <t>2. One may be tempted to increase the flexibility of the class of functions, but this runs into the dangers of</t>
-  </si>
-  <si>
-    <t>overfitting, where we can obtain a good fit to the training data, but perform badly when making test predictions.</t>
-  </si>
-  <si>
-    <t>2. Give a prior probability to every possible function. Higher probabilities given to functions that we consider to be more likely.</t>
-  </si>
-  <si>
-    <t>Because they are smoother than other functions.</t>
+    <t>Gaussian Processes</t>
+  </si>
+  <si>
+    <t>A Gaussian Process is a generalization of Gaussian Probability Distribution.</t>
+  </si>
+  <si>
+    <t>A probability distribution describes random variables which are scalars or vectors. It is a stochastic process that governs properties of functions.</t>
+  </si>
+  <si>
+    <t>A function can be thought of as a very long vector, where each entry in the vector specifies the function value f(x) at a particular input x.</t>
+  </si>
+  <si>
+    <t>Many models employed in ML and statistics are special cases Gausian Processes.</t>
+  </si>
+  <si>
+    <t>How do we deal computationally with these infinite dimensional objects?</t>
+  </si>
+  <si>
+    <t>If you ask only for the properties of the function at a finite number of points, then inference in the Gaussian process will give you the same answer if you ignore</t>
+  </si>
+  <si>
+    <t>the infinitely many other points, as if you would have taken them all into account.</t>
+  </si>
+  <si>
+    <t>Ask properties of function at finite number of points to Gaussian inference process.</t>
+  </si>
+  <si>
+    <t>It will give you same answer as infinitely many other points, as if you would have taken them all into account.</t>
+  </si>
+  <si>
+    <t>These answers are consistent with answers to any other finite queries you may have.</t>
+  </si>
+  <si>
+    <t>Gaussian Process framework unites a sophisticated and consistent view with computational traceability.</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>Random Variables</t>
+  </si>
+  <si>
+    <t>Random Variables are ways to map outcomes of random processes to numbers.</t>
+  </si>
+  <si>
+    <t>Random Process</t>
+  </si>
+  <si>
+    <t>Denoted by capital letters</t>
+  </si>
+  <si>
+    <t>Outcome -&gt; Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X = </t>
+  </si>
+  <si>
+    <t>1 if heads</t>
+  </si>
+  <si>
+    <t>Here, flipping a coin is random process. And it's outcome (heads, tails) is mapped to a number, i.e. quantifying outcome of random process.</t>
+  </si>
+  <si>
+    <t>0 if tails</t>
+  </si>
+  <si>
+    <t>Y = Sum of rolls of 7 dices</t>
+  </si>
+  <si>
+    <t>Unlike variables in algebra, random variables cannot be assigned a value or solved for values.</t>
+  </si>
+  <si>
+    <t>Instead, we talk about the probability of random variable equaling a value.</t>
+  </si>
+  <si>
+    <t>E.g. P(Y &lt;30) means probability of Sum of rolls of 7 dice to be less than 30.</t>
+  </si>
+  <si>
+    <t>P(Y even) means probability that Y should be even value.</t>
+  </si>
+  <si>
+    <t>Discrete Random Variables</t>
+  </si>
+  <si>
+    <t>Takes distinct or separate values.</t>
+  </si>
+  <si>
+    <t>Imp: Countable set of values.</t>
+  </si>
+  <si>
+    <t>E.g. Coin flip outcome, either 0 or 1. Two distinct values</t>
+  </si>
+  <si>
+    <t>E.g. Year that a random student was born. The possible years are distinct values, it cannot take any value between two distinct years.</t>
+  </si>
+  <si>
+    <t>Values are countable and discrete, even if they could be infinite values. Possibly would have fixed interval between two numbers.</t>
+  </si>
+  <si>
+    <t>Continuous Random Variables</t>
+  </si>
+  <si>
+    <t>Can take any value in the given range/interval. That range could even be infinite.</t>
+  </si>
+  <si>
+    <t>E.g. Mass of a randomly picked animal at the zoo. The mass could vary from 1 to 5000 kg, and it could be any value within this interval for randomly picked animal.</t>
+  </si>
+  <si>
+    <t>Probability Distribution of a Discrete Random Variable</t>
+  </si>
+  <si>
+    <t>X = Number of "heads" after 3 flips of a fair coin.</t>
+  </si>
+  <si>
+    <t>Possible outcomes</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>THH</t>
+  </si>
+  <si>
+    <t>P(X = 0)</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>HHT</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>P(X = 1)</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>HTH</t>
+  </si>
+  <si>
+    <t>TTH</t>
+  </si>
+  <si>
+    <t>P(X = 2)</t>
+  </si>
+  <si>
+    <t>HTT</t>
+  </si>
+  <si>
+    <t>TTT</t>
+  </si>
+  <si>
+    <t>P(X = 3)</t>
+  </si>
+  <si>
+    <t>Sum of all Probabilities will equal to 1.</t>
+  </si>
+  <si>
+    <t>Discrete Probability Distribution for our random variable X</t>
+  </si>
+  <si>
+    <t>Probability Density Function for Continuous Random Variable</t>
+  </si>
+  <si>
+    <t>Integration of f(x)dx over 1.9 to 2.1</t>
+  </si>
+  <si>
+    <t>Integration of f(x)dx over 0 to infinity will be 1.</t>
+  </si>
+  <si>
+    <t>i.e. Area under the curve will be 1.</t>
+  </si>
+  <si>
+    <t>Area under the curve of Probability Density Function will equal to 1</t>
   </si>
 </sst>
 </file>
@@ -118,8 +294,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -140,6 +316,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -149,7 +379,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,129 +459,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,19 +469,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,168 +625,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -487,56 +687,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,8 +731,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +742,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,158 +786,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -747,7 +1000,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,6 +1071,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018020" y="4404360"/>
+          <a:ext cx="3467100" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>716915</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="7879080"/>
+          <a:ext cx="6127115" cy="3253740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1069,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L29"/>
+  <dimension ref="A2:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.2"/>
@@ -1107,74 +1458,151 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="11"/>
       <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="15" spans="5:8">
-      <c r="E15" s="3" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="H15" t="s">
+      <c r="F15" s="12"/>
+      <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="J17" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="9:9">
-      <c r="I18" t="s">
+      <c r="K17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
-      <c r="I19" t="s">
+    <row r="18" spans="11:11">
+      <c r="K18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="9:9">
-      <c r="I20" t="s">
+    <row r="19" spans="11:11">
+      <c r="K19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="9:9">
-      <c r="I21" t="s">
+    <row r="20" spans="11:11">
+      <c r="K20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="8:8">
-      <c r="H28" t="s">
+    <row r="21" spans="11:11">
+      <c r="K21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="9:9">
-      <c r="I29" t="s">
+    <row r="23" spans="8:10">
+      <c r="H23" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11">
+      <c r="K27" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1185,4 +1613,239 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="12" max="15" width="9.4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="5:14">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15">
+      <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="12:12">
+      <c r="L44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/GP Book.xlsx
+++ b/GP Book.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="204">
   <si>
     <t>Introduction</t>
   </si>
@@ -208,6 +208,98 @@
     <t>Values are countable and discrete, even if they could be infinite values. Possibly would have fixed interval between two numbers.</t>
   </si>
   <si>
+    <t>Probability Distribution of a Discrete Random Variable</t>
+  </si>
+  <si>
+    <t>X = Number of "heads" after 3 flips of a fair coin.</t>
+  </si>
+  <si>
+    <t>Possible outcomes</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>THH</t>
+  </si>
+  <si>
+    <t>P(X = 0)</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>HHT</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>P(X = 1)</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>HTH</t>
+  </si>
+  <si>
+    <t>TTH</t>
+  </si>
+  <si>
+    <t>P(X = 2)</t>
+  </si>
+  <si>
+    <t>HTT</t>
+  </si>
+  <si>
+    <t>TTT</t>
+  </si>
+  <si>
+    <t>P(X = 3)</t>
+  </si>
+  <si>
+    <t>Sum of all Probabilities will equal to 1.</t>
+  </si>
+  <si>
+    <t>Discrete Probability Distribution for our random variable X</t>
+  </si>
+  <si>
+    <t>Probability Mass Function (PMF)</t>
+  </si>
+  <si>
+    <t>A probability mass function is a function that gives the probability that a discrete random variable is exactly equal to some value. It is also known as discrete density function.</t>
+  </si>
+  <si>
+    <t>It defines discrete probability distribution, as shown in above figure.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The value of the random variable having the largest probability mass is called the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mode.</t>
+    </r>
+  </si>
+  <si>
+    <t>All the values of this function must be non-negative and sum up to 1.</t>
+  </si>
+  <si>
     <t>Continuous Random Variables</t>
   </si>
   <si>
@@ -217,63 +309,6 @@
     <t>E.g. Mass of a randomly picked animal at the zoo. The mass could vary from 1 to 5000 kg, and it could be any value within this interval for randomly picked animal.</t>
   </si>
   <si>
-    <t>Probability Distribution of a Discrete Random Variable</t>
-  </si>
-  <si>
-    <t>X = Number of "heads" after 3 flips of a fair coin.</t>
-  </si>
-  <si>
-    <t>Possible outcomes</t>
-  </si>
-  <si>
-    <t>HHH</t>
-  </si>
-  <si>
-    <t>THH</t>
-  </si>
-  <si>
-    <t>P(X = 0)</t>
-  </si>
-  <si>
-    <t>1/8</t>
-  </si>
-  <si>
-    <t>HHT</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>P(X = 1)</t>
-  </si>
-  <si>
-    <t>3/8</t>
-  </si>
-  <si>
-    <t>HTH</t>
-  </si>
-  <si>
-    <t>TTH</t>
-  </si>
-  <si>
-    <t>P(X = 2)</t>
-  </si>
-  <si>
-    <t>HTT</t>
-  </si>
-  <si>
-    <t>TTT</t>
-  </si>
-  <si>
-    <t>P(X = 3)</t>
-  </si>
-  <si>
-    <t>Sum of all Probabilities will equal to 1.</t>
-  </si>
-  <si>
-    <t>Discrete Probability Distribution for our random variable X</t>
-  </si>
-  <si>
     <t>Probability Density Function for Continuous Random Variable</t>
   </si>
   <si>
@@ -287,6 +322,541 @@
   </si>
   <si>
     <t>Area under the curve of Probability Density Function will equal to 1</t>
+  </si>
+  <si>
+    <t>Sample Space</t>
+  </si>
+  <si>
+    <t>A sample space is the set of possible values taken by the random variable.</t>
+  </si>
+  <si>
+    <t>A probability density function  is a function whose value at any given sample in the sample space can be interpreted as providing a relative likelihood that the value</t>
+  </si>
+  <si>
+    <t>of the random variable would equal to that sample.</t>
+  </si>
+  <si>
+    <t>The probability density function is used to specify the probability of the random variable falling within a particular range of values, as opposed to taking on any one values.</t>
+  </si>
+  <si>
+    <t>This probability is given by the integral of this variable's PDF over the range.</t>
+  </si>
+  <si>
+    <t>Mathematical Defn:</t>
+  </si>
+  <si>
+    <t>P(X) &gt;=0</t>
+  </si>
+  <si>
+    <t>=1</t>
+  </si>
+  <si>
+    <t>Probability vs. Likelihood</t>
+  </si>
+  <si>
+    <t>Always change the left side of the equation.</t>
+  </si>
+  <si>
+    <t>Porbability</t>
+  </si>
+  <si>
+    <t>Probabilities are the areas under a fixed distribution</t>
+  </si>
+  <si>
+    <t>pr(data | distribution)</t>
+  </si>
+  <si>
+    <t>In above figure, 0.29 or 29% is the area under the curve and it is giving probability</t>
+  </si>
+  <si>
+    <t>Distribution is described by the right side of the equation.</t>
+  </si>
+  <si>
+    <t>that we will weigh a randomly selected mouse between 32 grams and 34 grams.</t>
+  </si>
+  <si>
+    <t>Area under the curve is described by the left side of the equation.</t>
+  </si>
+  <si>
+    <t>It is the area under the curve between 32 and 34 grams and it's value is 0.29</t>
+  </si>
+  <si>
+    <t>Using the same distribution, we can change the left side to get a new probability.</t>
+  </si>
+  <si>
+    <t>There is 29% chance a randomly selected mouse will weigh between 32 and 34 grams.</t>
+  </si>
+  <si>
+    <t>The probability of weighing a mouse between 32 and 34 grams given the mean of the distribution</t>
+  </si>
+  <si>
+    <t>is 32 and the standard deviation is 2.5 is equal to 0.29.</t>
+  </si>
+  <si>
+    <t>Left part of the equation shown in the figure we change, if we are interested in different mouse weights.</t>
+  </si>
+  <si>
+    <t>We change the left part of equation in 2nd figure.</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Likelihoods are the y-axis values for fixed data points with</t>
+  </si>
+  <si>
+    <t>distributions that can be moved</t>
+  </si>
+  <si>
+    <t>L(distribution | data)</t>
+  </si>
+  <si>
+    <t>Given a particular outcome, what is the likelihood that the</t>
+  </si>
+  <si>
+    <t>outcome fits a particular data distribution.</t>
+  </si>
+  <si>
+    <t>Assume that you have already weighted the mouse.</t>
+  </si>
+  <si>
+    <t>In above figure, the likelihood of weighing a 34 gram mouse is the + point on the curve which is equal to the  value of 0.12.</t>
+  </si>
+  <si>
+    <t>Mathematically, L(mean = 32 and standard deviation = 2.5 | mouse weighs 34 grams)</t>
+  </si>
+  <si>
+    <t>The likelihood of a distribution with mean = 32 and standard deviation = 2.5 given we weighed a 34 grams mouse is equal to 0.12.</t>
+  </si>
+  <si>
+    <t>If we shifted the distribution over so that mean was 34 grams, the new likelihood would be 0.21</t>
+  </si>
+  <si>
+    <t>Marginal Probability Distribution</t>
+  </si>
+  <si>
+    <t>Allows you to go from N-Dimensions to N-k Dimensions.</t>
+  </si>
+  <si>
+    <t>X =</t>
+  </si>
+  <si>
+    <t>1 if person goes to gym</t>
+  </si>
+  <si>
+    <t>Q. What is the probability that a person goes to Gym?</t>
+  </si>
+  <si>
+    <t>0 if person does not go to gym</t>
+  </si>
+  <si>
+    <t>P(X = 1) = P(X = 1, Y = 0) + P (X = 1, Y = 1)</t>
+  </si>
+  <si>
+    <t>Y =</t>
+  </si>
+  <si>
+    <t>1 if person has a girl friend</t>
+  </si>
+  <si>
+    <t>=0.4+0.2 = 0.6</t>
+  </si>
+  <si>
+    <t>0 if person does not have a girl-friend</t>
+  </si>
+  <si>
+    <t>Two Way Table</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Conditional Probability Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Distribution are a way of updating on knowledge after we observe part of the system. Due to observation, now there is a lower uncertaininity in the system. </t>
+  </si>
+  <si>
+    <t>Due to additional observation/knowledge, the dimension of uncertaininty reduces.</t>
+  </si>
+  <si>
+    <t>P(X = 1 | Y = 1) =</t>
+  </si>
+  <si>
+    <t>P(X =1, Y =1)</t>
+  </si>
+  <si>
+    <t>Joint Probablity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(X = 1 | Y = 1) = </t>
+  </si>
+  <si>
+    <t>P(Y = 1)</t>
+  </si>
+  <si>
+    <t>Marginal Probability</t>
+  </si>
+  <si>
+    <t>0.2 + 0.3</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>ILO</t>
+  </si>
+  <si>
+    <t>Conditional Probability is where there is more than one event, there is a sample space, and the probability of 2nd event depends on the probability of the 1st event having occurred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(A2 | A1) </t>
+  </si>
+  <si>
+    <t>= The conditional probability of A2 given A1.</t>
+  </si>
+  <si>
+    <t>= The probability that A2 will occur provided A1 has occurred.</t>
+  </si>
+  <si>
+    <t>P(A2 | A1) =</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">P(A2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ʌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E.g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tossing a die:</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample Space = {1, 2, 3, 4, 5, 6}</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>P(A1)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A1 = {Number is Odd} = {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 5}</t>
+    </r>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2 = {Number &lt; 4} = {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Conditional Probability with Independent Events</t>
+  </si>
+  <si>
+    <t>Roll a die twice</t>
+  </si>
+  <si>
+    <t>P(A1 and A2 )</t>
+  </si>
+  <si>
+    <t>= P(A1) P(A2 | A1)</t>
+  </si>
+  <si>
+    <t>S = {1, 2, 3, 4, 5, 6}</t>
+  </si>
+  <si>
+    <t>= (5/6) * (3/6)</t>
+  </si>
+  <si>
+    <t>1st Roll = {Number &lt; 6} = {1, 2, 3, 4, 5, 6}</t>
+  </si>
+  <si>
+    <t>= 15/36</t>
+  </si>
+  <si>
+    <t>= 5/12</t>
+  </si>
+  <si>
+    <t>2nd Roll = {Odd Number} = {1, 3, 5}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mutually Exclusive Events</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Event A and Event B does not have anything in common</t>
+    </r>
+  </si>
+  <si>
+    <t>A = {2H, 2D, 2S, 2C}</t>
+  </si>
+  <si>
+    <t>B = {KH, KD, KS, KC}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(A or B) </t>
+  </si>
+  <si>
+    <t>= P(A) + P(B)</t>
+  </si>
+  <si>
+    <t>= 4/52 + 4/52</t>
+  </si>
+  <si>
+    <t>= 8/52 = 2/13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mutually Inclusive Events: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Event A and Event B have something in common</t>
+    </r>
+  </si>
+  <si>
+    <t>A = {H}</t>
+  </si>
+  <si>
+    <t>B = {K}</t>
+  </si>
+  <si>
+    <t>P(A or B)</t>
+  </si>
+  <si>
+    <t>= P(A) + P(B) - P(A and B)</t>
+  </si>
+  <si>
+    <t>= 13/52 + 4/52 - 1/52</t>
+  </si>
+  <si>
+    <t>= 16/52 = 4/13</t>
+  </si>
+  <si>
+    <t>Bayes Theorem</t>
+  </si>
+  <si>
+    <t>Taking example of diagnostic test, Bayes Theorem gives the probability that some hypothesis, say that you actually have the disease, is true given an event;</t>
+  </si>
+  <si>
+    <t>that you tested positive for the disease. To calculate this, you need to take the prior probability of the hypothesis was true. And multiply it by the probability of the event</t>
+  </si>
+  <si>
+    <t>given the hypothesis is true, i.e. Probabliity you test positive, if you had the disease. And then divide that, by the total probability of event occurring, i.e. testing positive.</t>
+  </si>
+  <si>
+    <t>H = Hypothesis = Having Disease</t>
+  </si>
+  <si>
+    <t>P(H) = Prior Probability of Hypothesis being true = Prior Probability of having the disease</t>
+  </si>
+  <si>
+    <t>E = Event = Testing Positive</t>
+  </si>
+  <si>
+    <t>P(E) = Total probability of event occurring = Probability of Testing Positive</t>
+  </si>
+  <si>
+    <t>P(E | H) = Probability of the event given the hypothesis is true = Probability of testing positve given that you have the disease</t>
+  </si>
+  <si>
+    <t>P(H | E)=</t>
+  </si>
+  <si>
+    <t>P(H) * P(E | H)</t>
+  </si>
+  <si>
+    <t>P(H | E) = Probability of Hypothesis is true given an event = Probability of actually having a disease given that you tested positive.</t>
+  </si>
+  <si>
+    <t>P(E)</t>
+  </si>
+  <si>
+    <t>P(E) = P(H) * P(E | H) + P(-H) * P(E | -H)</t>
+  </si>
+  <si>
+    <t>P(E) = Probability of having a disease and correctly tested positive + Probability of not having a disease and falsely tested positive.</t>
+  </si>
+  <si>
+    <t>P(H) The prior probability that a hypothesis is true often the hardest part of this equation to figure out.</t>
   </si>
 </sst>
 </file>
@@ -294,12 +864,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,16 +886,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -333,7 +917,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -348,40 +932,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,8 +963,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,40 +1031,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Ubuntu"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -493,7 +1069,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +1219,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,168 +1249,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -713,17 +1289,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,21 +1455,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -772,26 +1465,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,160 +1483,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +1705,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -988,11 +1717,74 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1011,6 +1803,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,7 +1891,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -1121,13 +1928,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>716915</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1145,8 +1952,260 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2682240" y="7879080"/>
-          <a:ext cx="6127115" cy="3253740"/>
+          <a:off x="2682240" y="9723120"/>
+          <a:ext cx="6126480" cy="3253740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>646430</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>343535</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6681470" y="17106900"/>
+          <a:ext cx="4672965" cy="1785620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>259715</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13791565" y="17160240"/>
+          <a:ext cx="4855210" cy="1932940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654685</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>410845</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6689725" y="21259800"/>
+          <a:ext cx="4732020" cy="1830705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>297815</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15864840" y="21160740"/>
+          <a:ext cx="5502275" cy="2178685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023360" y="15590520"/>
+          <a:ext cx="2606040" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9052560" y="8176260"/>
+          <a:ext cx="1455420" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,29 +2517,29 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="34"/>
       <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="15" spans="5:10">
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="H15" s="9" t="s">
+      <c r="F15" s="35"/>
+      <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J15" t="s">
@@ -1488,13 +2547,13 @@
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="5:11">
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="J17" s="9" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="J17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
@@ -1522,7 +2581,7 @@
       </c>
     </row>
     <row r="23" spans="8:10">
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J23" t="s">
@@ -1535,7 +2594,7 @@
       </c>
     </row>
     <row r="26" spans="10:11">
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K26" t="s">
@@ -1543,12 +2602,12 @@
       </c>
     </row>
     <row r="27" spans="11:11">
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E30" t="s">
@@ -1618,15 +2677,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:X226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="12" max="15" width="9.4"/>
+    <col min="12" max="13" width="9.4"/>
+    <col min="14" max="14" width="10.7" customWidth="1"/>
+    <col min="15" max="15" width="9.4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1635,7 +2696,7 @@
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E3" t="s">
@@ -1695,7 +2756,7 @@
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F19" t="s">
@@ -1720,130 +2781,812 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
-      <c r="C24" t="s">
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15">
+      <c r="E34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="5:15">
-      <c r="E34" s="1" t="s">
+      <c r="I34" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="F35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="H35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" s="2" t="s">
+      <c r="I35" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="4" t="s">
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="F36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="H36" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" s="2" t="s">
+      <c r="I36" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>66</v>
+      <c r="I37" s="39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="12:12">
       <c r="L44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
+    <row r="50" spans="5:5">
+      <c r="E50" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="15:15">
-      <c r="O51" t="s">
+    <row r="51" spans="5:5">
+      <c r="E51" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="15:15">
-      <c r="O53" t="s">
+    <row r="54" spans="3:6">
+      <c r="C54" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="15:15">
-      <c r="O54" t="s">
+      <c r="F54" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="5:5">
-      <c r="E70" t="s">
+    <row r="55" spans="6:6">
+      <c r="F55" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7">
+      <c r="D92" t="s">
+        <v>95</v>
+      </c>
+      <c r="G92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="C103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:5">
+      <c r="C105" s="1"/>
+      <c r="E105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:21">
+      <c r="C116" s="1"/>
+      <c r="K116" t="s">
+        <v>103</v>
+      </c>
+      <c r="U116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="3:21">
+      <c r="C117" s="1"/>
+      <c r="K117" t="s">
+        <v>105</v>
+      </c>
+      <c r="U117" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="3:21">
+      <c r="C118" s="1"/>
+      <c r="K118" t="s">
+        <v>107</v>
+      </c>
+      <c r="U118" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11">
+      <c r="C119" s="1"/>
+      <c r="K119" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:11">
+      <c r="C121" s="1"/>
+      <c r="K121" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11">
+      <c r="C122" s="1"/>
+      <c r="K122" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="3:11">
+      <c r="C123" s="1"/>
+      <c r="K123" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11">
+      <c r="C124" s="1"/>
+      <c r="K124" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:5">
+      <c r="C127" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="11:11">
+      <c r="K140" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="11:11">
+      <c r="K142" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="144" spans="11:11">
+      <c r="K144" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="11:24">
+      <c r="K145" t="s">
+        <v>123</v>
+      </c>
+      <c r="X145" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9">
+      <c r="C152" t="s">
+        <v>127</v>
+      </c>
+      <c r="D152" t="s">
+        <v>128</v>
+      </c>
+      <c r="I152" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="9:9">
+      <c r="I154" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10">
+      <c r="C155" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" t="s">
+        <v>133</v>
+      </c>
+      <c r="J155" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6">
+      <c r="C158" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D158" s="11"/>
+      <c r="E158" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F158" s="12"/>
+    </row>
+    <row r="159" spans="3:6">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="12">
+        <v>0</v>
+      </c>
+      <c r="F159" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6">
+      <c r="C160" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D160" s="12">
+        <v>0</v>
+      </c>
+      <c r="E160" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F160" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6">
+      <c r="C161" s="12"/>
+      <c r="D161" s="12">
+        <v>1</v>
+      </c>
+      <c r="E161" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F161" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="1"/>
+      <c r="C165" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="1"/>
+      <c r="C166" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" ht="13.95" spans="2:2">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" s="1"/>
+      <c r="C168" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F168" s="17"/>
+      <c r="H168" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I168" s="17"/>
+      <c r="K168" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L168" s="23"/>
+      <c r="M168" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="169" ht="13.95" spans="2:13">
+      <c r="B169" s="1"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F169" s="19"/>
+      <c r="H169" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I169" s="19"/>
+      <c r="K169" s="23"/>
+      <c r="L169" s="23"/>
+      <c r="M169" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13">
+      <c r="B170" s="1"/>
+      <c r="L170" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="M170" s="23">
+        <f>0.2/0.5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4">
+      <c r="C176" t="s">
+        <v>152</v>
+      </c>
+      <c r="D176" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" ht="13.95"/>
+    <row r="179" spans="3:17">
+      <c r="C179" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D179" s="14"/>
+      <c r="E179" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J179" t="s">
+        <v>158</v>
+      </c>
+      <c r="N179" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="O179" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="P179" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q179" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" ht="13.95" spans="3:17">
+      <c r="C180" s="15"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J180" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N180" s="15"/>
+      <c r="O180" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="P180" s="16"/>
+      <c r="Q180" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="10:10">
+      <c r="J181" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="187" spans="9:11">
+      <c r="I187" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J187" s="23"/>
+      <c r="K187" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="188" spans="4:11">
+      <c r="D188" t="s">
+        <v>168</v>
+      </c>
+      <c r="K188" s="40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="4:12">
+      <c r="D189" t="s">
+        <v>170</v>
+      </c>
+      <c r="K189" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="L189" s="40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="195" spans="4:7">
+      <c r="D195" t="s">
+        <v>175</v>
+      </c>
+      <c r="G195" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5">
+      <c r="D197" t="s">
+        <v>177</v>
+      </c>
+      <c r="E197" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5">
+      <c r="E198" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5">
+      <c r="E199" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6">
+      <c r="D203" t="s">
+        <v>182</v>
+      </c>
+      <c r="F203" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5">
+      <c r="D205" t="s">
+        <v>184</v>
+      </c>
+      <c r="E205" s="40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5">
+      <c r="E208" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="218" spans="3:7">
+      <c r="C218" t="s">
+        <v>192</v>
+      </c>
+      <c r="G218" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="219" spans="3:7">
+      <c r="C219" t="s">
+        <v>194</v>
+      </c>
+      <c r="G219" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="220" ht="13.95" spans="7:7">
+      <c r="G220" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="221" spans="3:7">
+      <c r="C221" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D221" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E221" s="32"/>
+      <c r="G221" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222" ht="13.95" spans="3:5">
+      <c r="C222" s="30"/>
+      <c r="D222" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E222" s="33"/>
+    </row>
+    <row r="223" spans="7:7">
+      <c r="G223" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="224" spans="7:7">
+      <c r="G224" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="226" spans="7:7">
+      <c r="G226" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="N179:N180"/>
+    <mergeCell ref="P179:P180"/>
+    <mergeCell ref="C158:D159"/>
+    <mergeCell ref="C168:D169"/>
+    <mergeCell ref="K168:L169"/>
+    <mergeCell ref="C179:D180"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/GP Book.xlsx
+++ b/GP Book.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Ch 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Probability and Statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="Ch 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Probability and Statistics" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="247">
   <si>
     <t>Introduction</t>
   </si>
@@ -143,6 +144,480 @@
   </si>
   <si>
     <t>Gaussian Process framework unites a sophisticated and consistent view with computational traceability.</t>
+  </si>
+  <si>
+    <t>Gaussian Process</t>
+  </si>
+  <si>
+    <t>A Gaussian Process can be thought of as defining a distribution over functions. Inference takes place in the space of functions i.e. function-space view.</t>
+  </si>
+  <si>
+    <t>- Gaussian Processes have characteristics that can be changed by setting certain parameters.</t>
+  </si>
+  <si>
+    <t>- The predictions from a GP model take the form of a full predictive distribution.</t>
+  </si>
+  <si>
+    <t>Weight-space View</t>
+  </si>
+  <si>
+    <r>
+      <t>Simple Linear Regression Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The output is a linear combination of inputs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Main Virtue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Simple to implement and interpret.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Drawback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Model gives poor predictions if relationship between input and output cannot be approximated by a linear function.</t>
+    </r>
+  </si>
+  <si>
+    <t>- Bayesian treatment of the linear model.</t>
+  </si>
+  <si>
+    <t>- Enhancement to this class of models by projecting the inputs into a high-dimensional feature space and applying linear model there.</t>
+  </si>
+  <si>
+    <t>- Kernel trick to carry out computations implicitly in the high dimensional space.</t>
+  </si>
+  <si>
+    <t>- Kernel trick leads to computation saving when dimensionality of feature space is larger than number of data points.</t>
+  </si>
+  <si>
+    <t>Training set D:</t>
+  </si>
+  <si>
+    <r>
+      <t>D = {(x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, yi) | i = 1, ..., n}</t>
+    </r>
+  </si>
+  <si>
+    <t>n observations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = input vector (covariates) of dimesnion D</t>
+    </r>
+  </si>
+  <si>
+    <t>y = scalar output or target (dependent variable)</t>
+  </si>
+  <si>
+    <t>Design Matrix X:</t>
+  </si>
+  <si>
+    <t>Aggregates the column vector inputs for all an cases i. e. D x n matrix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The targets are collected in vector </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D = (X, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>We are interested in making inferences about the relationship between inputs and targets.</t>
+  </si>
+  <si>
+    <t>i.e. the conditional distribution of targets given the inputs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We are not interested in modelling input distribution itself.</t>
+    </r>
+  </si>
+  <si>
+    <t>Standard Linear Model:</t>
+  </si>
+  <si>
+    <t>Baysian analysis with Gaussian Noise for linear regression model:</t>
+  </si>
+  <si>
+    <r>
+      <t>f(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">T </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
+  <si>
+    <t>Here,</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the input vector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a vector of weights (parameters) of the linear model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y = f(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) + E</t>
+    </r>
+  </si>
+  <si>
+    <t>f is the function value</t>
+  </si>
+  <si>
+    <t>y is the observed target value.</t>
+  </si>
+  <si>
+    <t>E is additive noise.</t>
+  </si>
+  <si>
+    <r>
+      <t>In above equations, we have assumed that the observed values y differ from the function values f(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) by additive noise E.</t>
+    </r>
+  </si>
+  <si>
+    <t>We further assume that this noise follows an independent, identically distributed Gaussian Distribution with zero mean and variance as shown below:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Often a bias weight or offset is included, but this can be implemented by augmenting the input vector </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with an additional element whose value is always one.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This noise assumption together with the model directly gives rise to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>likelihood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the probability density of the observations given the parameters.</t>
+    </r>
+  </si>
+  <si>
+    <t>This is factored over cases in the training set to give</t>
+  </si>
+  <si>
+    <r>
+      <t>Prior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: In the Bayesian formalism, we need to specify a prior over the parameters, expressing our beliefs about the parameters before looking at the observations.</t>
+    </r>
+  </si>
+  <si>
+    <t>We put a zero mean Gaussian prior with covariance matrix on weights as follows:</t>
+  </si>
+  <si>
+    <r>
+      <t>Posterior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Inference in the Bayesian linear model is based on the posterior distribution over the weights, computed by Bayes rule as shown below:</t>
+    </r>
+  </si>
+  <si>
+    <t>The marginal likelihood (also known as normalizing constant) is independent of the weights and given by:</t>
   </si>
   <si>
     <t>KA</t>
@@ -864,12 +1339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,7 +1377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,7 +1392,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -927,6 +1418,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,14 +1440,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,8 +1469,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -972,15 +1485,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,14 +1493,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,31 +1506,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Ubuntu"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1075,7 +1557,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,127 +1707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,19 +1719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,13 +1731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,11 +1918,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,22 +1937,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,35 +1959,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,144 +1980,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1683,7 +2165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1768,30 +2250,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1802,9 +2272,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1881,6 +2348,221 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="7711440"/>
+          <a:ext cx="1280160" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335915</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="9220200"/>
+          <a:ext cx="5700395" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="11148060"/>
+          <a:ext cx="1318260" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419735</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="12070080"/>
+          <a:ext cx="5784215" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="13243560"/>
+          <a:ext cx="2842260" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2522,23 +3204,23 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="28"/>
       <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="15" spans="5:10">
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="29"/>
       <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2547,12 +3229,12 @@
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="5:11">
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="J17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2677,9 +3359,230 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:H78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="E40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+    <sheetView topLeftCell="A203" workbookViewId="0">
       <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
@@ -2692,122 +3595,122 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="5:14">
       <c r="E4" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="5:8">
       <c r="E6" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="5:15">
       <c r="E34" s="2" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>63</v>
+        <v>105</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -2816,176 +3719,176 @@
     </row>
     <row r="35" spans="5:9">
       <c r="E35" s="3" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>67</v>
+        <v>109</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" s="3" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>67</v>
+        <v>113</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" s="5" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>63</v>
+        <v>116</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="12:12">
       <c r="L44" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="4:6">
       <c r="D83" s="1" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="7" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="4:7">
       <c r="D92" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G92" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="11:11">
-      <c r="K95" s="40" t="s">
-        <v>97</v>
+      <c r="K95" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="3:5">
       <c r="C103" s="1" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="3:3">
@@ -2994,7 +3897,7 @@
     <row r="105" spans="3:5">
       <c r="C105" s="1"/>
       <c r="E105" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="3:3">
@@ -3030,34 +3933,34 @@
     <row r="116" spans="3:21">
       <c r="C116" s="1"/>
       <c r="K116" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="U116" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="3:21">
       <c r="C117" s="1"/>
       <c r="K117" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="U117" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="3:21">
       <c r="C118" s="1"/>
       <c r="K118" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="U118" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="3:11">
       <c r="C119" s="1"/>
       <c r="K119" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="3:3">
@@ -3066,25 +3969,25 @@
     <row r="121" spans="3:11">
       <c r="C121" s="1"/>
       <c r="K121" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="3:11">
       <c r="C122" s="1"/>
       <c r="K122" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="3:11">
       <c r="C123" s="1"/>
       <c r="K123" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="3:11">
       <c r="C124" s="1"/>
       <c r="K124" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="3:3">
@@ -3095,109 +3998,109 @@
     </row>
     <row r="127" spans="3:5">
       <c r="C127" s="1" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E127" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="5:5">
       <c r="E133" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="11:11">
       <c r="K140" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="11:11">
       <c r="K142" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="11:11">
       <c r="K144" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="11:24">
       <c r="K145" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="X145" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="1" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="3:9">
       <c r="C152" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D152" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="I152" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="9:9">
       <c r="I154" s="7" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="3:10">
       <c r="C155" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="D155" t="s">
-        <v>133</v>
-      </c>
-      <c r="J155" s="40" t="s">
-        <v>134</v>
+        <v>176</v>
+      </c>
+      <c r="J155" s="30" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="3:6">
       <c r="C158" s="11" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="12" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="F158" s="12"/>
     </row>
@@ -3213,7 +4116,7 @@
     </row>
     <row r="160" spans="3:6">
       <c r="C160" s="12" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="D160" s="12">
         <v>0</v>
@@ -3239,7 +4142,7 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="2:2">
@@ -3248,13 +4151,13 @@
     <row r="165" spans="2:3">
       <c r="B165" s="1"/>
       <c r="C165" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" s="1"/>
       <c r="C166" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" ht="13.95" spans="2:2">
@@ -3263,19 +4166,19 @@
     <row r="168" spans="2:13">
       <c r="B168" s="1"/>
       <c r="C168" s="13" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="14" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="F168" s="17"/>
       <c r="H168" s="13" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="I168" s="17"/>
       <c r="K168" s="23" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="L168" s="23"/>
       <c r="M168" s="25">
@@ -3287,23 +4190,23 @@
       <c r="C169" s="15"/>
       <c r="D169" s="16"/>
       <c r="E169" s="18" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="F169" s="19"/>
       <c r="H169" s="20" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="I169" s="19"/>
       <c r="K169" s="23"/>
       <c r="L169" s="23"/>
-      <c r="M169" s="41" t="s">
-        <v>148</v>
+      <c r="M169" s="36" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="2:13">
       <c r="B170" s="1"/>
       <c r="L170" s="24" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="M170" s="23">
         <f>0.2/0.5</f>
@@ -3316,50 +4219,50 @@
     <row r="172" spans="2:3">
       <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="3:3">
       <c r="C174" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="3:4">
       <c r="C176" t="s">
-        <v>152</v>
-      </c>
-      <c r="D176" s="40" t="s">
-        <v>153</v>
+        <v>195</v>
+      </c>
+      <c r="D176" s="30" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="4:4">
-      <c r="D177" s="40" t="s">
-        <v>154</v>
+      <c r="D177" s="30" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="178" ht="13.95"/>
     <row r="179" spans="3:17">
       <c r="C179" s="13" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="D179" s="14"/>
-      <c r="E179" s="42" t="s">
-        <v>156</v>
+      <c r="E179" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="J179" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="N179" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="O179" s="43" t="s">
-        <v>159</v>
+        <v>198</v>
+      </c>
+      <c r="O179" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="P179" s="14" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="Q179" s="27">
         <v>2</v>
@@ -3369,14 +4272,14 @@
       <c r="C180" s="15"/>
       <c r="D180" s="16"/>
       <c r="E180" s="22" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="J180" s="7" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="N180" s="15"/>
-      <c r="O180" s="44" t="s">
-        <v>162</v>
+      <c r="O180" s="39" t="s">
+        <v>205</v>
       </c>
       <c r="P180" s="16"/>
       <c r="Q180" s="22">
@@ -3385,187 +4288,187 @@
     </row>
     <row r="181" spans="10:10">
       <c r="J181" s="7" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="3:3">
       <c r="C184" s="1" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="4:4">
       <c r="D186" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="9:11">
       <c r="I187" s="23" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="J187" s="23"/>
-      <c r="K187" s="40" t="s">
-        <v>167</v>
+      <c r="K187" s="30" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="4:11">
       <c r="D188" t="s">
-        <v>168</v>
-      </c>
-      <c r="K188" s="40" t="s">
-        <v>169</v>
+        <v>211</v>
+      </c>
+      <c r="K188" s="30" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="4:12">
       <c r="D189" t="s">
-        <v>170</v>
-      </c>
-      <c r="K189" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="L189" s="40" t="s">
-        <v>172</v>
+        <v>213</v>
+      </c>
+      <c r="K189" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="L189" s="30" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="4:4">
       <c r="D190" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="3:3">
       <c r="C193" s="1" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="4:7">
       <c r="D195" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="G195" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="4:5">
       <c r="D197" t="s">
-        <v>177</v>
-      </c>
-      <c r="E197" s="40" t="s">
-        <v>178</v>
+        <v>220</v>
+      </c>
+      <c r="E197" s="30" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="5:5">
-      <c r="E198" s="40" t="s">
-        <v>179</v>
+      <c r="E198" s="30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="5:5">
-      <c r="E199" s="40" t="s">
-        <v>180</v>
+      <c r="E199" s="30" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" s="1" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="4:6">
       <c r="D203" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="F203" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
     </row>
     <row r="205" spans="4:5">
       <c r="D205" t="s">
-        <v>184</v>
-      </c>
-      <c r="E205" s="40" t="s">
-        <v>185</v>
+        <v>227</v>
+      </c>
+      <c r="E205" s="30" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="5:5">
-      <c r="E207" s="40" t="s">
-        <v>186</v>
+      <c r="E207" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="5:5">
-      <c r="E208" s="40" t="s">
-        <v>187</v>
+      <c r="E208" s="30" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="1" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="3:3">
       <c r="C214" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="3:3">
       <c r="C215" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="3:7">
       <c r="C218" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="G218" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="3:7">
       <c r="C219" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G219" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" ht="13.95" spans="7:7">
       <c r="G220" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="3:7">
-      <c r="C221" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D221" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E221" s="32"/>
+      <c r="C221" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D221" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E221" s="27"/>
       <c r="G221" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" ht="13.95" spans="3:5">
-      <c r="C222" s="30"/>
-      <c r="D222" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E222" s="33"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E222" s="22"/>
     </row>
     <row r="223" spans="7:7">
       <c r="G223" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="7:7">
       <c r="G224" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="7:7">
       <c r="G226" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
